--- a/excel/etf_degree_centrality.xlsx
+++ b/excel/etf_degree_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.8260869565217391</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.7826086956521738</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4473684210526315</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="21">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="22">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="25">
@@ -615,157 +615,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sanja Vranes</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Milana Prodanov</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Stefan Tubic</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Filip Hadzic</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Vladimir Jocovic</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Danko Miladinovic</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Dragana Milovancevic</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Jelica Cincovic</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Jovan Djukic</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Kristijan Ziza</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Marko Micovic</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tamara Sekularac</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Uros Radenkovic</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Aleksandar Lazic</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Dragisa Miladinovic</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
   </sheetData>
